--- a/UIPrototype/系统测试用例_v1.xlsx
+++ b/UIPrototype/系统测试用例_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC-PC\Desktop\CLASS\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC-PC\Documents\GitHub\SE_VR_Project\UIPrototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66A581E-E087-4D5B-B3B5-AC668DEEB06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEEEDE6-832D-4DF3-AF7F-1666FD65E882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="388">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -946,9 +946,6 @@
   <si>
     <t>功能测试用例常用测试项（包括输入验证、常用功能模块、常用功能操作。）</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <r>
@@ -1648,9 +1645,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Urgent(严重错误)</t>
-  </si>
-  <si>
     <t>EndlessMemories-Map-002</t>
   </si>
   <si>
@@ -1669,10 +1663,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>因模型原因，玩家现在可从任何窗户强行逃离建筑物。需更改教室模型使窗户具有碰撞箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EndlessMemories-Entity-004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1839,10 +1829,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EndlessMemories-System-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1856,10 +1842,6 @@
   </si>
   <si>
     <t>通过菜单退出或游戏失败进行关卡重启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能见度超出预期，现在可清晰看到走廊尽头</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2254,9 +2236,6 @@
     <t>有新手教程，并且界面容易上手</t>
   </si>
   <si>
-    <t>界面比较容易上手，但是没有新手教程</t>
-  </si>
-  <si>
     <t>EndlessMemories-PVP-001</t>
   </si>
   <si>
@@ -2713,9 +2692,6 @@
     <t>根据物品可交互属性出现对应提示图标，交互后将生效相应操作（如物品被捡起或放入背包）</t>
   </si>
   <si>
-    <t>暂仅支持键鼠操作，仍在开发中</t>
-  </si>
-  <si>
     <t>后续或将对准心判定方式进行一定修改</t>
   </si>
   <si>
@@ -2802,9 +2778,6 @@
     <t>当视角方向和人物位置逐渐靠近时，可交互标识将极度容易被玩家所观察到</t>
   </si>
   <si>
-    <t>仍在开发中</t>
-  </si>
-  <si>
     <t>JunHanaizumi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2813,11 +2786,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>alpha1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Jun, Edward, Naomi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.1.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从解谜游戏转为动作游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beta1.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2828,7 +2813,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2987,6 +2972,13 @@
       <sz val="11"/>
       <name val="SimSun"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3366FF"/>
+      <name val="DengXian"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3252,7 +3244,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3403,17 +3395,69 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3460,35 +3504,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3501,14 +3521,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3522,42 +3536,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3979,8 +3977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -3997,169 +3995,169 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1">
       <c r="A1" s="24"/>
-      <c r="B1" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="B1" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
       <c r="A3" s="18"/>
-      <c r="B3" s="63" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="69" t="s">
+      <c r="B3" s="79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="31.2">
       <c r="A4" s="18"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="82"/>
+      <c r="D4" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="63">
+      <c r="B5" s="79">
         <v>1</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="70"/>
+        <v>387</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="85"/>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1">
       <c r="A6" s="22"/>
-      <c r="B6" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="B6" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="31.2">
       <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="98">
-        <v>44185</v>
+      <c r="F7" s="56">
+        <v>44204</v>
       </c>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="31.2">
       <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="71"/>
+        <v>210</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" s="59"/>
       <c r="E8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="98">
-        <v>44185</v>
+        <v>209</v>
+      </c>
+      <c r="F8" s="56">
+        <v>44204</v>
       </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="31.2">
       <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="71"/>
+        <v>211</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>383</v>
+      </c>
+      <c r="D9" s="59"/>
       <c r="E9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="98">
-        <v>44185</v>
+        <v>209</v>
+      </c>
+      <c r="F9" s="56">
+        <v>44204</v>
       </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="32.4">
       <c r="A11" s="18"/>
-      <c r="B11" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="76"/>
+      <c r="B11" s="67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="67"/>
       <c r="D11" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="18"/>
-      <c r="B12" s="77">
+      <c r="B12" s="68">
         <v>44185</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="31" t="s">
         <v>166</v>
       </c>
@@ -4167,24 +4165,32 @@
         <v>186</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="18"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>381</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="18"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -4192,8 +4198,8 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="18"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -4201,8 +4207,8 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="18"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -4210,8 +4216,8 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="18"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
@@ -4219,29 +4225,29 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1">
       <c r="A18" s="24"/>
-      <c r="B18" s="72" t="s">
-        <v>240</v>
-      </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="B18" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="28" t="s">
+      <c r="F19" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="11"/>
@@ -4249,21 +4255,21 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="54"/>
+      <c r="B20" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="70"/>
       <c r="D20" s="10">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
         <v>11</v>
       </c>
       <c r="E20" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B20)*('Test Cases'!K:K="Y"))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ref="F20:F29" si="0">IF(D20,E20/D20,0)</f>
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="11"/>
@@ -4271,10 +4277,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="52"/>
+      <c r="B21" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="58"/>
       <c r="D21" s="10">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>0</v>
@@ -4293,21 +4299,21 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="51" t="s">
-        <v>249</v>
-      </c>
-      <c r="C22" s="52"/>
+      <c r="B22" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="58"/>
       <c r="D22" s="10">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>4</v>
       </c>
       <c r="E22" s="10">
         <f>SUMPRODUCT(('Test Cases'!C:C=B22)*('Test Cases'!K:K="Y"))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" s="30">
         <f>IF(D22,E22/D22,0)</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="11"/>
@@ -4315,10 +4321,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C23" s="52"/>
+      <c r="B23" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="58"/>
       <c r="D23" s="10">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>1</v>
@@ -4337,10 +4343,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="52"/>
+      <c r="B24" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="58"/>
       <c r="D24" s="10">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -4359,10 +4365,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="52"/>
+      <c r="B25" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="58"/>
       <c r="D25" s="10">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>0</v>
@@ -4381,10 +4387,10 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="68"/>
+      <c r="B26" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="62"/>
       <c r="D26" s="10">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>6</v>
@@ -4403,10 +4409,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="68"/>
+      <c r="B27" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="62"/>
       <c r="D27" s="10">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>0</v>
@@ -4423,10 +4429,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="C28" s="68"/>
+      <c r="B28" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="62"/>
       <c r="D28" s="10">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>0</v>
@@ -4443,21 +4449,21 @@
     </row>
     <row r="29" spans="1:9" ht="16.2">
       <c r="A29" s="26"/>
-      <c r="B29" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="68"/>
+      <c r="B29" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="62"/>
       <c r="D29" s="10">
         <f>SUM(D20:D28)</f>
         <v>22</v>
       </c>
       <c r="E29" s="10">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" si="0"/>
-        <v>0.63636363636363635</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13"/>
     </row>
@@ -4522,6 +4528,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="B23:C23"/>
@@ -4538,23 +4561,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4572,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP904"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.09765625" defaultRowHeight="15.6"/>
@@ -4599,82 +4605,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
     </row>
     <row r="4" spans="1:42" ht="48">
       <c r="A4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="G4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>159</v>
@@ -4683,47 +4689,47 @@
         <v>168</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="69.599999999999994">
       <c r="A5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>257</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>258</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>170</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M5" s="35" t="s">
         <v>160</v>
@@ -4732,38 +4738,38 @@
     </row>
     <row r="6" spans="1:42" ht="83.4">
       <c r="A6" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>265</v>
-      </c>
       <c r="F6" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="J6" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>161</v>
@@ -4772,38 +4778,38 @@
     </row>
     <row r="7" spans="1:42" ht="69.599999999999994">
       <c r="A7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>170</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="J7" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M7" s="35" t="s">
         <v>162</v>
@@ -4813,38 +4819,38 @@
     </row>
     <row r="8" spans="1:42" ht="31.2">
       <c r="A8" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D8" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="45" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M8" s="35"/>
       <c r="N8" s="7"/>
@@ -4853,40 +4859,40 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="87">
+    <row r="9" spans="1:42" ht="57">
       <c r="A9" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="I9" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="J9" s="47" t="s">
-        <v>285</v>
+      <c r="J9" s="15" t="s">
+        <v>260</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M9" s="35" t="s">
         <v>163</v>
@@ -4896,38 +4902,38 @@
     </row>
     <row r="10" spans="1:42" ht="55.8">
       <c r="A10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M10" s="35"/>
       <c r="N10" s="7"/>
@@ -4938,38 +4944,38 @@
     </row>
     <row r="11" spans="1:42" ht="97.2">
       <c r="A11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M11" s="35"/>
       <c r="N11" s="7"/>
@@ -4979,38 +4985,38 @@
     </row>
     <row r="12" spans="1:42" ht="55.8">
       <c r="A12" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M12" s="35"/>
       <c r="N12" s="7"/>
@@ -5020,594 +5026,594 @@
     </row>
     <row r="13" spans="1:42" ht="55.8">
       <c r="A13" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="B13" s="45" t="s">
-        <v>313</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="45" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M13" s="35"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:42" s="96" customFormat="1" ht="58.2">
-      <c r="A14" s="91" t="s">
+    <row r="14" spans="1:42" s="54" customFormat="1" ht="58.2">
+      <c r="A14" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="I14" s="50" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="J14" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="N14" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="92" t="s">
+    </row>
+    <row r="15" spans="1:42" s="54" customFormat="1" ht="72.599999999999994">
+      <c r="A15" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91" t="s">
+      <c r="B15" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="I14" s="92" t="s">
+      <c r="E15" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="J14" s="92" t="s">
-        <v>320</v>
-      </c>
-      <c r="K14" s="91" t="s">
+      <c r="G15" s="49"/>
+      <c r="H15" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="L14" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M14" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="N14" s="95" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" s="96" customFormat="1" ht="72.599999999999994">
-      <c r="A15" s="91" t="s">
+      <c r="L15" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="B15" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="92" t="s">
+      <c r="N15" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="E15" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="92" t="s">
+    </row>
+    <row r="16" spans="1:42" s="54" customFormat="1" ht="72.599999999999994">
+      <c r="A16" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91" t="s">
+      <c r="B16" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="I15" s="92" t="s">
+      <c r="E16" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="J15" s="92" t="s">
-        <v>327</v>
-      </c>
-      <c r="K15" s="91" t="s">
+      <c r="I16" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="L15" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M15" s="94" t="s">
-        <v>328</v>
-      </c>
-      <c r="N15" s="95" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" s="96" customFormat="1" ht="72.599999999999994">
-      <c r="A16" s="91" t="s">
+      <c r="L16" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="C16" s="91" t="s">
+      <c r="N16" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="X16" s="55"/>
+    </row>
+    <row r="17" spans="1:42" s="54" customFormat="1" ht="58.2">
+      <c r="A17" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="X17" s="55"/>
+    </row>
+    <row r="18" spans="1:42" s="54" customFormat="1" ht="58.2">
+      <c r="A18" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="X18" s="55"/>
+      <c r="AP18" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="D16" s="95" t="s">
-        <v>331</v>
-      </c>
-      <c r="E16" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="I16" s="92" t="s">
+    </row>
+    <row r="19" spans="1:42" s="54" customFormat="1" ht="58.2">
+      <c r="A19" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M19" s="52"/>
+      <c r="N19" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="X19" s="55"/>
+      <c r="AP19" s="54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" s="54" customFormat="1" ht="58.2">
+      <c r="A20" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="J16" s="92" t="s">
-        <v>334</v>
-      </c>
-      <c r="K16" s="91" t="s">
+      <c r="I20" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="J20" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K20" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="L16" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M16" s="94" t="s">
+      <c r="L20" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M20" s="52"/>
+      <c r="N20" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="X20" s="55"/>
+      <c r="AP20" s="54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" s="54" customFormat="1" ht="58.2">
+      <c r="A21" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="J21" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M21" s="52"/>
+      <c r="N21" s="53"/>
+      <c r="X21" s="55"/>
+      <c r="AP21" s="54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" s="54" customFormat="1" ht="101.4">
+      <c r="A22" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M22" s="52"/>
+      <c r="N22" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="AP22" s="54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" s="54" customFormat="1" ht="129.6">
+      <c r="A23" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M23" s="52"/>
+      <c r="N23" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="AP23" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="N16" s="91" t="s">
-        <v>322</v>
-      </c>
-      <c r="X16" s="97"/>
-    </row>
-    <row r="17" spans="1:42" s="96" customFormat="1" ht="58.2">
-      <c r="A17" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="95" t="s">
+    </row>
+    <row r="24" spans="1:42" s="54" customFormat="1" ht="115.8">
+      <c r="A24" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M24" s="52"/>
+      <c r="N24" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="X24" s="55"/>
+    </row>
+    <row r="25" spans="1:42" s="54" customFormat="1" ht="115.8">
+      <c r="A25" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="E25" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" s="52"/>
+      <c r="N25" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="X25" s="55"/>
+    </row>
+    <row r="26" spans="1:42" s="54" customFormat="1" ht="72.599999999999994">
+      <c r="A26" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" s="52"/>
+      <c r="N26" s="49"/>
+      <c r="X26" s="55"/>
+      <c r="AP26" s="54" t="s">
         <v>316</v>
-      </c>
-      <c r="D17" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="I17" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="J17" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="K17" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M17" s="94" t="s">
-        <v>340</v>
-      </c>
-      <c r="N17" s="95" t="s">
-        <v>341</v>
-      </c>
-      <c r="X17" s="97"/>
-    </row>
-    <row r="18" spans="1:42" s="96" customFormat="1" ht="58.2">
-      <c r="A18" s="91" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>316</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>343</v>
-      </c>
-      <c r="E18" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="F18" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="I18" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="J18" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="K18" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="X18" s="97"/>
-      <c r="AP18" s="96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" s="96" customFormat="1" ht="58.2">
-      <c r="A19" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>316</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="E19" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91" t="s">
-        <v>349</v>
-      </c>
-      <c r="I19" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="J19" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="K19" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M19" s="94"/>
-      <c r="N19" s="95" t="s">
-        <v>351</v>
-      </c>
-      <c r="X19" s="97"/>
-      <c r="AP19" s="96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" s="96" customFormat="1" ht="58.2">
-      <c r="A20" s="91" t="s">
-        <v>352</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="I20" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="J20" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="K20" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M20" s="94"/>
-      <c r="N20" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="X20" s="97"/>
-      <c r="AP20" s="96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" s="96" customFormat="1" ht="58.2">
-      <c r="A21" s="91" t="s">
-        <v>353</v>
-      </c>
-      <c r="B21" s="91" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="95" t="s">
-        <v>354</v>
-      </c>
-      <c r="E21" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91" t="s">
-        <v>338</v>
-      </c>
-      <c r="I21" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="J21" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="K21" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="L21" s="91" t="s">
-        <v>295</v>
-      </c>
-      <c r="M21" s="94"/>
-      <c r="N21" s="95"/>
-      <c r="X21" s="97"/>
-      <c r="AP21" s="96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" s="96" customFormat="1" ht="101.4">
-      <c r="A22" s="91" t="s">
-        <v>357</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>359</v>
-      </c>
-      <c r="E22" s="93" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91" t="s">
-        <v>361</v>
-      </c>
-      <c r="I22" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="J22" s="92" t="s">
-        <v>362</v>
-      </c>
-      <c r="K22" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M22" s="94"/>
-      <c r="N22" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="AP22" s="96" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" s="96" customFormat="1" ht="129.6">
-      <c r="A23" s="91" t="s">
-        <v>364</v>
-      </c>
-      <c r="B23" s="91" t="s">
-        <v>365</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="D23" s="91" t="s">
-        <v>367</v>
-      </c>
-      <c r="E23" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="F23" s="91" t="s">
-        <v>360</v>
-      </c>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91" t="s">
-        <v>368</v>
-      </c>
-      <c r="I23" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="J23" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="K23" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="L23" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="M23" s="94"/>
-      <c r="N23" s="92" t="s">
-        <v>371</v>
-      </c>
-      <c r="AP23" s="96" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" s="96" customFormat="1" ht="115.8">
-      <c r="A24" s="91" t="s">
-        <v>372</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>373</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>374</v>
-      </c>
-      <c r="E24" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91" t="s">
-        <v>376</v>
-      </c>
-      <c r="I24" s="92" t="s">
-        <v>377</v>
-      </c>
-      <c r="J24" s="92" t="s">
-        <v>378</v>
-      </c>
-      <c r="K24" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="M24" s="94"/>
-      <c r="N24" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="X24" s="97"/>
-    </row>
-    <row r="25" spans="1:42" s="96" customFormat="1" ht="115.8">
-      <c r="A25" s="91" t="s">
-        <v>380</v>
-      </c>
-      <c r="B25" s="92" t="s">
-        <v>373</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="E25" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F25" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="I25" s="92" t="s">
-        <v>383</v>
-      </c>
-      <c r="J25" s="92" t="s">
-        <v>378</v>
-      </c>
-      <c r="K25" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="L25" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="M25" s="94"/>
-      <c r="N25" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="X25" s="97"/>
-    </row>
-    <row r="26" spans="1:42" s="96" customFormat="1" ht="72.599999999999994">
-      <c r="A26" s="91" t="s">
-        <v>384</v>
-      </c>
-      <c r="B26" s="92" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>385</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="92" t="s">
-        <v>375</v>
-      </c>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91" t="s">
-        <v>386</v>
-      </c>
-      <c r="I26" s="92" t="s">
-        <v>387</v>
-      </c>
-      <c r="J26" s="92" t="s">
-        <v>388</v>
-      </c>
-      <c r="K26" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="L26" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="M26" s="94"/>
-      <c r="N26" s="91"/>
-      <c r="X26" s="97"/>
-      <c r="AP26" s="96" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -10347,14 +10353,14 @@
   <sheetData>
     <row r="1" spans="1:2" ht="288">
       <c r="B1" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="90"/>
+      <c r="A3" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="89"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="42" t="s">
@@ -10391,19 +10397,19 @@
       <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="94"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="90"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="90" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10411,85 +10417,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A13" s="84"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1">
-      <c r="A14" s="84"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A15" s="84"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A16" s="84"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A17" s="84"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1">
-      <c r="A18" s="84"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1">
-      <c r="A19" s="84"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
-      <c r="A20" s="84"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1">
-      <c r="A21" s="84"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.8">
-      <c r="A22" s="84"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A23" s="84"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="84"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="90"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="90" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -10497,61 +10503,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A27" s="84"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A28" s="84"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A29" s="84"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A30" s="84"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A31" s="84"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A32" s="84"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A33" s="84"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A34" s="84"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="90"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="91" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -10559,25 +10565,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1">
-      <c r="A37" s="86"/>
+      <c r="A37" s="92"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1">
-      <c r="A38" s="87"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="90" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -10585,28 +10591,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A41" s="84"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="28.8">
-      <c r="A42" s="84"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A43" s="84"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="84"/>
+      <c r="B44" s="90"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -10617,13 +10623,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="84"/>
+      <c r="B46" s="90"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -10631,37 +10637,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A48" s="84"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A49" s="84"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A50" s="84"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A51" s="84"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="84"/>
+      <c r="B52" s="90"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="91" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -10669,37 +10675,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A54" s="86"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A55" s="86"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A56" s="86"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A57" s="87"/>
+      <c r="A57" s="93"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="90"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="91" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -10707,25 +10713,25 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="86"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="87"/>
+      <c r="A61" s="93"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="84"/>
+      <c r="B62" s="90"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -10733,31 +10739,31 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.8">
-      <c r="A64" s="84"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A65" s="84"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A66" s="84"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="84"/>
+      <c r="B67" s="90"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="90" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -10765,37 +10771,37 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A69" s="84"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A70" s="84"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A71" s="84"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A72" s="84"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="84"/>
+      <c r="B73" s="90"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="90" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -10803,16 +10809,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A75" s="84"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="83"/>
+      <c r="B77" s="94"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1">
       <c r="A78" s="2" t="s">
@@ -10867,21 +10873,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="94" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="83"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="94"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A88" s="88" t="s">
+      <c r="A88" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="89"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="98"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="91" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -10892,7 +10898,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A90" s="86"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -10901,7 +10907,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A91" s="86"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -10910,7 +10916,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A92" s="86"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -10919,7 +10925,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A93" s="86"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -10928,7 +10934,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A94" s="86"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -10937,7 +10943,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1">
-      <c r="A95" s="87"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -10946,14 +10952,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1">
-      <c r="A96" s="88" t="s">
+      <c r="A96" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="82"/>
-      <c r="C96" s="89"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="98"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A97" s="85" t="s">
+      <c r="A97" s="91" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -10964,7 +10970,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1">
-      <c r="A98" s="86"/>
+      <c r="A98" s="92"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -10973,7 +10979,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="72">
-      <c r="A99" s="87"/>
+      <c r="A99" s="93"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -10982,21 +10988,21 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B101" s="83"/>
-      <c r="C101" s="83"/>
+      <c r="B101" s="94"/>
+      <c r="C101" s="94"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A102" s="84" t="s">
+      <c r="A102" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="96" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -11007,7 +11013,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A104" s="81"/>
+      <c r="A104" s="96"/>
       <c r="B104" s="2" t="s">
         <v>115</v>
       </c>
@@ -11016,7 +11022,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="81"/>
+      <c r="A105" s="96"/>
       <c r="B105" s="2" t="s">
         <v>116</v>
       </c>
@@ -11025,7 +11031,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="81"/>
+      <c r="A106" s="96"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -11034,7 +11040,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="81"/>
+      <c r="A107" s="96"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -11043,7 +11049,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="81"/>
+      <c r="A108" s="96"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -11052,14 +11058,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="B109" s="84"/>
-      <c r="C109" s="84"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="91" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -11070,7 +11076,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A111" s="87"/>
+      <c r="A111" s="93"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -11079,14 +11085,14 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A112" s="82" t="s">
+      <c r="A112" s="95" t="s">
         <v>189</v>
       </c>
-      <c r="B112" s="82"/>
-      <c r="C112" s="82"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="95"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="90" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -11097,7 +11103,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A114" s="84"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -11106,7 +11112,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A115" s="84"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -11115,7 +11121,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A116" s="84"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -11124,14 +11130,14 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1">
-      <c r="A117" s="84" t="s">
+      <c r="A117" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="84"/>
-      <c r="C117" s="84"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A118" s="85" t="s">
+      <c r="A118" s="91" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -11142,7 +11148,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A119" s="87"/>
+      <c r="A119" s="93"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -11151,14 +11157,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="84"/>
-      <c r="C120" s="84"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="91" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -11169,7 +11175,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A122" s="86"/>
+      <c r="A122" s="92"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -11178,7 +11184,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A123" s="86"/>
+      <c r="A123" s="92"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -11187,7 +11193,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A124" s="86"/>
+      <c r="A124" s="92"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -11196,7 +11202,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A125" s="86"/>
+      <c r="A125" s="92"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -11205,7 +11211,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A126" s="86"/>
+      <c r="A126" s="92"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -11214,7 +11220,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A127" s="86"/>
+      <c r="A127" s="92"/>
       <c r="B127" s="2" t="s">
         <v>138</v>
       </c>
@@ -11223,7 +11229,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A128" s="86"/>
+      <c r="A128" s="92"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -11232,7 +11238,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A129" s="86"/>
+      <c r="A129" s="92"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -11241,7 +11247,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A130" s="86"/>
+      <c r="A130" s="92"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -11250,7 +11256,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A131" s="87"/>
+      <c r="A131" s="93"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -11259,21 +11265,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
+      <c r="B133" s="94"/>
+      <c r="C133" s="94"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="B134" s="84"/>
-      <c r="C134" s="84"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1">
-      <c r="A135" s="81" t="s">
+      <c r="A135" s="96" t="s">
         <v>179</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -11284,7 +11290,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A136" s="81"/>
+      <c r="A136" s="96"/>
       <c r="B136" s="2" t="s">
         <v>178</v>
       </c>
@@ -11293,14 +11299,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A137" s="84" t="s">
+      <c r="A137" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="B137" s="84"/>
-      <c r="C137" s="84"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="90"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A138" s="81" t="s">
+      <c r="A138" s="96" t="s">
         <v>180</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -11311,7 +11317,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A139" s="81"/>
+      <c r="A139" s="96"/>
       <c r="B139" s="2" t="s">
         <v>185</v>
       </c>
@@ -11320,14 +11326,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A140" s="82" t="s">
+      <c r="A140" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="B140" s="82"/>
-      <c r="C140" s="82"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="95"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1">
-      <c r="A141" s="81" t="s">
+      <c r="A141" s="96" t="s">
         <v>182</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -11338,7 +11344,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A142" s="81"/>
+      <c r="A142" s="96"/>
       <c r="B142" s="2" t="s">
         <v>178</v>
       </c>
@@ -11348,15 +11354,28 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A97:A99"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A40:A43"/>
@@ -11373,28 +11392,15 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:A131"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
